--- a/StructureDefinition-profile-ClaimResponse.xlsx
+++ b/StructureDefinition-profile-ClaimResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7546222-06:00</t>
+    <t>2026-02-20T11:59:20.7528233-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ClaimResponse|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ClaimResponse</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -453,7 +453,7 @@
     <t>traceNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.traceNumber|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.traceNumber}
 </t>
   </si>
   <si>
@@ -476,7 +476,7 @@
     <t>decision</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.decision|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.decision}
 </t>
   </si>
   <si>
@@ -495,7 +495,7 @@
     <t>event</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.event|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.event}
 </t>
   </si>
   <si>
@@ -514,7 +514,7 @@
     <t>diagnosisRelatedGroup</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.diagnosisRelatedGroup|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.diagnosisRelatedGroup}
 </t>
   </si>
   <si>
@@ -533,7 +533,7 @@
     <t>encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -913,7 +913,7 @@
     <t>item</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.item|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.item}
 </t>
   </si>
   <si>
@@ -1186,7 +1186,7 @@
     <t>addItem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.addItem|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.addItem}
 </t>
   </si>
   <si>
@@ -1598,7 +1598,7 @@
     <t>total</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.total|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.total}
 </t>
   </si>
   <si>
@@ -1656,7 +1656,7 @@
     <t>payment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.payment|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.payment}
 </t>
   </si>
   <si>
@@ -1848,7 +1848,7 @@
     <t>processNote</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.processNote|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.processNote}
 </t>
   </si>
   <si>
@@ -1967,7 +1967,7 @@
     <t>insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.insurance|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.insurance}
 </t>
   </si>
   <si>
@@ -2085,7 +2085,7 @@
     <t>error</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.error|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ClaimResponse.error}
 </t>
   </si>
   <si>
@@ -2457,7 +2457,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
